--- a/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
+++ b/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ActCode" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from MedComCoreEncoun" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
+++ b/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ActCode" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from MedComCoreEncoun" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
+++ b/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>2.0.0-draft</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
+++ b/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Exclude #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01</t>
+    <t>2025-09-22</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +128,13 @@
     <t>other</t>
   </si>
   <si>
+    <t>Other encounter class</t>
+  </si>
+  <si>
     <t>http://medcomfhir.dk/ig/terminology/CodeSystem/medcom-core-encounter-act-codes</t>
+  </si>
+  <si>
+    <t>OBSENC</t>
   </si>
 </sst>
 </file>
@@ -471,7 +478,9 @@
       <c r="A2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -486,7 +495,54 @@
         <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
+++ b/ig/terminology/ValueSet-medcom-core-encounter-class.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22</t>
+    <t>2025-10-28</t>
   </si>
   <si>
     <t>Publisher</t>
